--- a/data/volvo_5years.xlsx
+++ b/data/volvo_5years.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="776">
   <si>
     <t>뉴스구분</t>
   </si>
@@ -22,6 +22,9 @@
     <t>날짜</t>
   </si>
   <si>
+    <t>링크</t>
+  </si>
+  <si>
     <t>제목</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>By press information</t>
   </si>
   <si>
+    <t>6/20/2023</t>
+  </si>
+  <si>
     <t>6/14/2023</t>
   </si>
   <si>
@@ -430,7 +436,484 @@
     <t>8/1/2018</t>
   </si>
   <si>
-    <t>7/19/2018</t>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-to-set-up-a-new-compact-business-unit/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-moves-headquarters-to-eskilstuna-sweden/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-walks-the-talk-with-sustainability-demonstration-for-top-us-policymakers/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/strong-start-to-2023-for-volvo-construction-equipment/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/kamel-sid-appointed-head-of-operations-at-volvo-ce/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-highlights-complete-solutions-for-a-changing-industry-at-conexpo/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-helps-customers-see-bigger-picture-with-connected-map-in-north-america/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-delivers-north-americas-first-machine-made-using-fossil-free-steel/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-opens-pre-order-tool-in-north-america-for-new-dd25-electric/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-launches-three-compact-assist-packages-for-volvo-soil-compactors/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-remote-control-excavators-put-safety-and-versatility-in-your-hands/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-introduces-connected-load-out-to-improve-jobsite-efficiency/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-launches-task-manager-in-north-america-to-help-keep-projects-on-track/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-unveils-a-new-portfolio-of-volvo-service-contracts/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ec500-the-next-generation-of-faster-safer-and-more-productive-excavators-from-volvo-ce/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-expands-mid-size-electric-offering-with-l120h-electric-conversion/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-invests-in-battery-pack-production-at-excavator-plant/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/changes-to-volvo-construction-equipment-executive-management-team/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/jonas-bergstrand-appointed-head-of-legal-at-volvo-ce/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-increases-sales-and-continues-industry-transformation-in-q4-2022/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-leads-industry-change-with-milestone-investment-into-electric-wheel-loaders/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-to-showcase-solutions-for-a-changing-industry-at-conexpo2023/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-introduces-first-electric-machine-for-road-segment/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2023/volvo-ce-introduces-collision-mitigation-system-for-jobsite-safety/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-ce-partners-on-swedens-largest-fossil-free-worksite/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/emission-free-recycling-in-bavaria-with-electric-machines-from-volvo-ce/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-ce-achieves-good-profitability-in-q3-2022/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-ce-helps-elevate-motorsport-safety-with-electric-car-recovery-solution/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-ce-partners-with-brio-to-inspire-budding-engineers/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/fia-world-rx-electric-era-takes-off-with-volvo-construction-equipment/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-ce-remains-strong-in-q2-2022/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/pioneering-partnership-strives-for-net-zero-construction-value-chain/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-ce-enters-gaming-with-farming-simulator/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-ce-starts-testing-of-the-worlds-first-prototype-hydrogen-articulated-hauler/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-ce-worlds-first-deliver-construction-machine-built-using-fossil-free-steel-to-customer/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-days-2022-change-starts-here/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-construction-equipment-world-rx-rallycross-tracks/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-ce-boosts-its-electrification-transformation-with-investment-in-dutch-manufacturer-limach/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-ce-steady-q1-performance-impacted-by-china/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-construction-equipment-carl-slotte-change-starts-here/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-construction-equipment-enters-partnership-with-fia/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-ce-offers-tailored-support-for-customers-to-reach-carbon-reduction-goals/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-ce-brings-its-first-commercial-electric-machine-to-asia/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-ce-appoints-new-head-of-brand-and-marketing-for-asia-and-china/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/why-volvo-articulated-haulers-are-a-cut-above-the-rest/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/volvo-ce-launches-new-digital-service-business-for-load-out-solutions/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2022/increased-sales-and-profitability-for-volvo-construction-equipment-in-q4-2021/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/volvo-ce-develops-full-power-of-electric-ecosystem-with-e-worksite/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/berlin-embraces-electromobility-with-nine-electric-machines-from-volvo-ce/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/volvo-ce-tests-worlds-first-high-lift-tele-operation-over-5g/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/meet-volvo-prototype-lx03-the-intelligent-future-of-construction/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/volvo-ce-boosted-by-solid-growth-outside-china-in-q3/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/volvo-launches-worlds-first-vehicle-using-fossil-free-steel/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/volvo-ce-powers-a-sustainable-future-with-largest-range-of-electric-machines/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/volvo-ce-unveils-cx01-single-drum-asphalt-compactor-concept-at-the-utility-expo/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/could-you-pull-a-100-ton-volvo-hauler-using-only-lego-technic-elements/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/groundbreaking-electro-hydraulic-system-wins-volvo-technology-award/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/keys-to-a-carbon-neutral-future-and-its-not-just-electromobility/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/six-seemingly-small-ways-to-make-a-big-impact/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/solid-performance-in-the-second-quarter-for-volvo-construction-equipment/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/volvo-ce-celebrates-international-women-in-engineering-day/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/volvo-ce-commits-to-science-based-targets-with-approved-carbon-reduction-pathway/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/first-volvo-ce-electric-machines-give-an-extra-boost-to-switzerlands-greenest-city/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/volvo-ce-takes-big-step-towards-a-carbon-neutral-future-with-hydrogen-fuel-cell-test-lab/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/volvo-ce-delivers-its-vision-of-the-factory-4-tomorrow/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/good-performance-sees-q1-sales-increase/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/electric-customer-pilot-excavator-arrives-at-customer-site-in-china/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/innovation-has-no-gender-volvo-ce-inspiring-tomorrows-female-engineers/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/new-marketing-approach-brings-volvo-ce-and-customers-closer-together/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/volvo-ce-trains-technicians-in-transition-to-electric-machines/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/volvo-ce-sells-a-million-machines-in-one-year/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/volvo-l25-electric-gives-winter-the-cold-shoulder-with-eco-friendly-city-cleaning/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/volvo-ce-to-open-new-test-and-demo-area/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/sales-up-6-in-volvo-construction-equipment-4th-quarter-2020/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2021/first-customers-to-order-volvo-electric-compact-machines-at-bauma-2019-take-delivery/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/volvo-ce-and-volvo-trucks-customer-deliveries-of-all-electric-products/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/pioneering-electro-hydraulic-solution-significantly-improving-fuel-efficiency-in-construction-equipm/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/bauma-china-2020-press-kit/volvo-ce-commits-to-the-chinese-market-at-bauma-china-2020-launching-two-new-excavator-ranges/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/bauma-china-2020-press-kit/china-focused-14-ton-dd145-is-the-ultimate-all-round-compactor/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/bauma-china-2020-press-kit/new-volvo-service-commitment-boosts-aftermarket-innovation/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/bauma-china-2020-press-kit/volvo-ce-launching-two-new-excavator-ranges-designed-and-made-in-china-for-china/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/bauma-china-2020-press-kit/volvo-ce-presents-connectivity-automation-and-electromobility-innovations-at-bauma-china-2020/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/volvo-articulated-haulers-half-a-century-strong/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/volvo-ce-unveils-first-electric-customer-pilot-in-china/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/volvo-ce-unveils-first-mid-size-electric-excavator-concept/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/volvo-electric-site-to-provide-model-for-sustainable-construction-in-china/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/volvo-group-demonstrates-commitment-to-chinese-customers-with-joint-volvo-and-sdlg-stand-at-bauma-ch/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/rebound-in-activity-boosts-volvo-construction-equipment-in-q3/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/prebooking-of-volvo-ce-s-electric-machines-widened-to-include-more-countries-and-a-new-premium-warra/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/volvo-ce-reinforces-its-commitment-to-building-tomorrow-with-projects-that-benefit-communities-world/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/volvo-ce-adopts-clean-product-branding-as-part-of-award-winning-design-philosophy/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/volvo-ce-to-divest-blaw-knox-paver-business-to-gencor-industries/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/volvo-ce-q2-results/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/volvo-ce-wins-sustainability-award-from-the-european-rental-industry/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/volvo-autonomous-hauler-wins-red-dot-award/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/volvo-ce-helps-restore-florida-s-everglades-to-former-glory/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/sales-slip-17-in-volvo-ces-first-quarter/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/volvo-ce-introduces-compactor/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/news-article-page/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/add-silence-volvo-ce-s-noiseless-electric-machines-now-available-for-prebooking/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/2019-sees-continued-strong-performance-at-volvo-ce/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/pre-conexpo-las-vegas-2020/volvo-ce-drives-construction-into-the-future/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/pre-conexpo-las-vegas-2020/volvo-ec300e-hybrid-reduces-fuel-consumption-by-up-to-15/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/pre-conexpo-las-vegas-2020/volvo-s-largest-excavator-the-ec950f-now-available-in-north-america/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/pre-conexpo-las-vegas-2020/volvo-ce-brings-100-ton-class-rigid-hauler-to-north-america/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/pre-conexpo-las-vegas-2020/volvo-ce-launches-new-8-foot-asphalt-pavers-in-north-america/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/pre-conexpo-las-vegas-2020/volvo-gold-rush-excavator-auction-set-for-february-at-ritchie-bros/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2020/pre-conexpo-las-vegas-2020/volvo-ce-asks-customers-to-hold-us-accountable-with-new-service-commitment/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/first-volvo-electric-compact-wheel-loader-a-tree-mendous-success-for-german-tree-farm/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-ce-sees-sales-dip-in-the-third-quarter/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/the-world-s-largest-infrastructure-and-investment-project/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-ce-helps-hit-pioneering-connectivity-milestone/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/first-volvo-electric-compact-excavator-arrives-at-customer-site/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-ce-see-sales-rise-10-in-second-quarter/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/innovation-and-sustainability-key-when-volvo-ce-invests-for-the-future-in-eskilstuna/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/nina-aresund-appointed-head-of-legal/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/going-deep-to-build-the-worlds-longest-road-tunnel/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/jannicke-serneberg-appointed-manager-of-munktell-museum/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-ce-and-sdlg-take-next-step-in-china/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/new-exhibition-celebrates-machines-of-the-future-built-in-lego-bricks/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-ce-scoops-two-awards-at-brand-film-festival-london/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/ann-sofie-raftegard-appointed-head-of-hr-at-volvo-ce/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-s-electric-excavator-helps-build-the-morgan-stanley-garden-at-iconic-rhs-chelsea-flower-show/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/sales-up-15-per-cent-in-volvo-ce-s-first-quarter/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/building-a-new-wonder-of-the-world/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/the-volvo-group-helping-solve-construction-s-toughest-demands-today-and-tomorrow/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-ce-unveils-electric-compact-excavator-and-wheel-loader-at-bauma/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/increased-uptime-thanks-to-volvo-active-care/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/new-application-puts-haulers-on-the-map/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/new-generation-ew60e-wheels-out-yet-more-versatility/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/new-volvo-ec60e-delivers-big-machine-performance-in-compact-package/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/simple-volvo-hybrid-set-to-improve-fuel-efficiency-by-up-to-17/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/top-grades-at-top-speed-with-volvo-active-control/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-ce-and-trimble-develop-3d-upgrade-for-dig-assist-excavator-control-system/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-s-new-generation-tooth-system-gives-buckets-something-to-chew-on/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-construction-equipment-appoints-new-head-of-technology/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-ce-exceeds-wwf-energy-savings-target-two-years-early/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-ce-and-lego-technic-futuristic-concept-wins-gold-at-if-design-awards/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-ce-finalizes-acquisition-of-cede-group/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/remote-controlled-wheel-loaders-to-be-tested-when-volvo-ce-receives-sweden-first-5g-network-for-indu/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/international-womens-day/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-ce-acquires-special-applications-firm-cede/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-ce-partners-with-national-geographic-on-sustainability-campaign/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-looks-to-the-electric-future-at-bauma-2019/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-construction-equipment-sees-sales-up-27-in-2018/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2019/volvo-ce-goes-electric-on-smaller-machines/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2018/volvo-showcases-portfolio-for-sustainable-infrastructure-at-bauma-china/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2018/carbon-emissions-reduced-by-98-at-volvo-construction-equipment-and-skanskas-electric-site/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2018/volvo-ces-megaproject-listing-building-a-new-city-from-the-ground-up/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2018/four-things-you-should-know-about-the-quarry-and-aggregates-industry/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2018/watch-how-a-hollywood-action-hero-gives-volvo-excavators-the-boot-camp-treatment/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2018/volvo-ce-sales-up-24-in-q3/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2018/volvo-ce-celebrates-20-years-of-world-class-excavator-development-in-korea/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2018/volvo-construction-equipment-at-bauma-china-2018/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2018/volvo-ce-unveils-electric-compact-wheel-loader-concept/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2018/volvo-ce-inaugurates-new-headquarters/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2018/testing-begins-at-worlds-first-emission-free-quarry/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2018/volvo-ces-megaproject-listing-reaches-new-heights/</t>
+  </si>
+  <si>
+    <t>https://www.volvoce.com/global/en/news-and-events/press-releases/2018/volvo-ces-the-megaproject-listing-series-wins-content-marketing-awards/</t>
+  </si>
+  <si>
+    <t>VOLVO CONSTRUCTION EQUIPMENT TO SET UP A NEW COMPACT BUSINESS UNIT</t>
   </si>
   <si>
     <t>VOLVO CONSTRUCTION EQUIPMENT MOVES HEADQUARTERS TO ESKILSTUNA, SWEDEN</t>
@@ -907,7 +1390,7 @@
     <t>VOLVO CE'S 'THE MEGAPROJECT LISTING' SERIES WINS CONTENT MARKETING AWARDS</t>
   </si>
   <si>
-    <t>SALES UP 32% IN STRONG SECOND QUARTER AT VOLVO CONSTRUCTION EQUIPMENT</t>
+    <t>In order to maximize the opportunities in the growing compact equipment segment Volvo Construction Equipment (Volvo CE) has today announced the launch of a new Compact Business Unit.</t>
   </si>
   <si>
     <t>Volvo Construction Equipment (Volvo CE) has today announced that the company's global headquarters will move from its current location in Gothenburg, Sweden, to Eskilstuna, Sweden.</t>
@@ -1384,7 +1867,17 @@
     <t>Volvo Construction Equipment (Volvo CE) has scooped a top prize at the prestigious Content Marketing Awards for its global digital campaign ‘The Megaproject Listing’.</t>
   </si>
   <si>
-    <t>Helping the Volvo Group to its best ever quarter, Volvo CE posted significant improvements in sales, earnings and order intake.</t>
+    <t>The new Compact Business Unit will:
+Take advantage of the shift to electrification in the compact equipment segment to secure a fully electric line up of productive and sustainable products across the whole compact range.
+Have responsibility for the whole value chain including development, assembly, purchasing and the go-to-market strategy (together with the existing distribution network) for the Compact offering, increasing touch points with customers.
+Operate as an independent entity within Volvo CE, fully focused on maximizing the opportunities in the growing market for compact equipment.
+Initially be responsible for compact excavators up to 9 tons and compact wheel loaders up to the L50 model.
+As part of its ambition to lead the transformation journey through electrification and sustainable power, Volvo CE has set up a dedicated business unit for its range of compact equipment machines and solutions, with the aim of driving growth and profitability in this important and growing product segment.
+An increase in population and urbanization has led to the expansion of the construction sector throughout the globe – with a particularly strong increase in the demand for compact equipment. The segment now represents 50% of the total market, compared to 35% a decade ago, with the growth trend likely to continue.
+This new global business unit is the latest step forward in the company’s ambitions to lead the transformation of the industry and provide dedicated productivity-boosting solutions built to fit customers’ evolving needs. Thomas Bitter, Volvo CE’s Head of Technology, will take on the role as Head of the Compact Business Unit, from September 2023.
+He comments: “Our pioneering work in electrification and digitalization has positioned us as an innovator in compact equipment. And now because of compact equipment’s ever-growing influence on the market, we are focusing our attention on our compact machine portfolio to provide customers with productive and sustainable products and services. The people who join us in this journey will not only develop specialized skills in this important area but be playing an integral role in our wider purpose of building the world we want to live in.”
+The new Compact Business Unit will be comprised of committed and passionate people currently within Volvo CE as well as external talent.
+Volvo CE was early in leading the way by making an industry-first move to shift its entire branded compact range over to electric and stop development of new diesel variants, back in 2019. Since this strong signal to the market, it has launched five electric compact models: the ECR25 Electric, ECR18 Electric and EC18 Electric excavators and the L20 Electric and L25 Electric wheel loaders. The EC55 Electric excavator has also been introduced to China.</t>
   </si>
   <si>
     <t>Eskilstuna is already a large cross functional workplace for Volvo CE, with around 2,500 employees from different functions. The move forms part of an ongoing project to strengthen collaboration and innovation with local educational, social and business hubs – such as Mälardalen University, with whom Volvo CE already enjoys a close partnership through which to develop future engineering talent and grow new perspectives and innovations to benefit the company.
@@ -3636,59 +4129,12 @@
 Volvo CE will pick up the award during a ceremony at the annual Content Marketing World in Cleveland, Ohio, in front of more than 4,000 guests from more than 70 countries worldwide.
 Visit Spirit Magazine and find out more about ‘The Megaprojects Listing’.</t>
   </si>
-  <si>
-    <t>A combination of competitive products and high demand in most markets saw Volvo Construction Equipment (Volvo CE) report net sales in the second quarter of 2018 that were up by almost a third, rising 32% compared to the same period in the year before. Good cost control as volumes return also resulted in strong improvement in profitability.
-Net sales in the second quarter increased by 32%, amounting to SEK 24,403 M (SEK 18,439 M in Q2 2017). Operating income was also strongly up, at 3,675 M in the period, eclipsing the 2,460 reported in the same period the year before, equating to an operating margin of 15.1% (13.3%).
-The second quarter 2018 also saw order intake increase by 41%, while deliveries in the period were up 38%, at 24,108 machines. Order intake in China was particularly strong, rising by 72%, driven by increased demand for SDLG wheel loaders and SDLG and Volvo excavators.
-Market improvements
-The second quarter of 2018 saw a continuation of the improving demand situation in most major markets. In the year-to-date, Europe is up 8%, North America up 17% and South America up 28%. Asia (excluding China) is up 19%, while the Chinese market continues its strong development, rising 47%. 
-“Volvo CE is well invested in strong products and services and a strategy that is serving both our customers and ourselves well,” commented Melker Jernberg, President of Volvo Construction Equipment. “We continue our efforts to improve efficiency across the supply chain, and are moving in the right direction. Finding the balance between investing in new technologies while at the same time maintaining cost consciousness and flexibility will continue to be in focus during the remainder of the year.”
-Volvo Construction Equipment, net sales by market area, in Millions of Swedish Krona (SEK).
-Net sales by market area
-Second quarter
-First six months
-SEK M
-2018
-2017
-2018
-2017
-Europe
-7,752
-6,695
-14,351
-12,425
-North America
-4,463
-3,748
-7,896
-6,638
-South America
-603
-392
-1,118
-791
-Asia
-10,394
-6,502
-19,458
-12,638
-Africa &amp; Oceania
-1,191
-1,101
-2,466
-2,048
-Total
-24,403
-18,439
-45,317
-34,541</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3703,6 +4149,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3737,16 +4190,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4039,13 +4498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4061,2711 +4520,3352 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>458</v>
+      </c>
+      <c r="F2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>140</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>459</v>
+      </c>
+      <c r="F3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>141</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>460</v>
+      </c>
+      <c r="F4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>142</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>461</v>
+      </c>
+      <c r="F5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>143</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>462</v>
+      </c>
+      <c r="F6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>144</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>463</v>
+      </c>
+      <c r="F7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>145</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>464</v>
+      </c>
+      <c r="F8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>146</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>465</v>
+      </c>
+      <c r="F9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>147</v>
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E10" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>466</v>
+      </c>
+      <c r="F10" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>148</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E11" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>467</v>
+      </c>
+      <c r="F11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>149</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E12" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>468</v>
+      </c>
+      <c r="F12" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>150</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E13" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>469</v>
+      </c>
+      <c r="F13" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>151</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E14" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>470</v>
+      </c>
+      <c r="F14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>152</v>
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E15" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>471</v>
+      </c>
+      <c r="F15" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>153</v>
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E16" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>472</v>
+      </c>
+      <c r="F16" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>154</v>
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="D17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E17" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>473</v>
+      </c>
+      <c r="F17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>155</v>
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="D18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E18" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>474</v>
+      </c>
+      <c r="F18" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>156</v>
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E19" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>475</v>
+      </c>
+      <c r="F19" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>157</v>
+        <v>20</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="D20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E20" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>476</v>
+      </c>
+      <c r="F20" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>158</v>
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E21" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>477</v>
+      </c>
+      <c r="F21" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>159</v>
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E22" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>478</v>
+      </c>
+      <c r="F22" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>160</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="D23" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E23" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>479</v>
+      </c>
+      <c r="F23" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>161</v>
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E24" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>480</v>
+      </c>
+      <c r="F24" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>162</v>
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E25" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>481</v>
+      </c>
+      <c r="F25" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>163</v>
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E26" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>482</v>
+      </c>
+      <c r="F26" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>164</v>
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E27" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>483</v>
+      </c>
+      <c r="F27" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>165</v>
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E28" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>484</v>
+      </c>
+      <c r="F28" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>166</v>
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E29" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>485</v>
+      </c>
+      <c r="F29" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>167</v>
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="D30" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E30" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>486</v>
+      </c>
+      <c r="F30" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>168</v>
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="D31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E31" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>487</v>
+      </c>
+      <c r="F31" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>169</v>
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="D32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>488</v>
+      </c>
+      <c r="F32" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>170</v>
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E33" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>489</v>
+      </c>
+      <c r="F33" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>171</v>
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="D34" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E34" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>490</v>
+      </c>
+      <c r="F34" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>172</v>
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="D35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E35" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>491</v>
+      </c>
+      <c r="F35" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
-        <v>173</v>
+        <v>35</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="D36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E36" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>492</v>
+      </c>
+      <c r="F36" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>174</v>
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="D37" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E37" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>493</v>
+      </c>
+      <c r="F37" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>175</v>
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="D38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E38" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>494</v>
+      </c>
+      <c r="F38" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>176</v>
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="D39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E39" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>495</v>
+      </c>
+      <c r="F39" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>177</v>
+        <v>39</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="D40" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E40" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>496</v>
+      </c>
+      <c r="F40" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>178</v>
+        <v>40</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D41" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E41" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>497</v>
+      </c>
+      <c r="F41" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>179</v>
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="D42" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E42" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>498</v>
+      </c>
+      <c r="F42" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" t="s">
-        <v>180</v>
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="D43" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E43" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>499</v>
+      </c>
+      <c r="F43" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" t="s">
-        <v>181</v>
+        <v>43</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="D44" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E44" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>500</v>
+      </c>
+      <c r="F44" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
-        <v>182</v>
+        <v>44</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D45" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E45" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>501</v>
+      </c>
+      <c r="F45" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" t="s">
-        <v>183</v>
+        <v>45</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="D46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E46" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>502</v>
+      </c>
+      <c r="F46" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" t="s">
-        <v>184</v>
+        <v>46</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="D47" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E47" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>503</v>
+      </c>
+      <c r="F47" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" t="s">
-        <v>185</v>
+        <v>47</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="D48" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E48" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>504</v>
+      </c>
+      <c r="F48" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
-        <v>186</v>
+        <v>48</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="D49" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E49" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>505</v>
+      </c>
+      <c r="F49" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" t="s">
-        <v>187</v>
+        <v>49</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="D50" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E50" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>506</v>
+      </c>
+      <c r="F50" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
-        <v>188</v>
+        <v>50</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="D51" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E51" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>507</v>
+      </c>
+      <c r="F51" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" t="s">
-        <v>189</v>
+        <v>51</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="D52" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E52" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>508</v>
+      </c>
+      <c r="F52" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" t="s">
-        <v>190</v>
+        <v>52</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="D53" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E53" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>509</v>
+      </c>
+      <c r="F53" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" t="s">
-        <v>191</v>
+        <v>53</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="D54" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E54" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>510</v>
+      </c>
+      <c r="F54" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" t="s">
-        <v>192</v>
+        <v>54</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="D55" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E55" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>511</v>
+      </c>
+      <c r="F55" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" t="s">
-        <v>193</v>
+        <v>55</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="D56" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E56" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>512</v>
+      </c>
+      <c r="F56" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" t="s">
-        <v>194</v>
+        <v>56</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D57" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E57" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>513</v>
+      </c>
+      <c r="F57" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" t="s">
-        <v>195</v>
+        <v>57</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="D58" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E58" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>514</v>
+      </c>
+      <c r="F58" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" t="s">
-        <v>196</v>
+        <v>58</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="D59" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E59" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>515</v>
+      </c>
+      <c r="F59" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" t="s">
-        <v>197</v>
+        <v>59</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="D60" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E60" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>516</v>
+      </c>
+      <c r="F60" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" t="s">
-        <v>198</v>
+        <v>60</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="D61" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E61" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>517</v>
+      </c>
+      <c r="F61" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" t="s">
-        <v>199</v>
+        <v>61</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="D62" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E62" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>518</v>
+      </c>
+      <c r="F62" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" t="s">
-        <v>200</v>
+        <v>62</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="D63" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E63" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>519</v>
+      </c>
+      <c r="F63" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" t="s">
-        <v>201</v>
+        <v>63</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D64" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E64" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>520</v>
+      </c>
+      <c r="F64" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" t="s">
-        <v>202</v>
+        <v>64</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="D65" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E65" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>521</v>
+      </c>
+      <c r="F65" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" t="s">
-        <v>203</v>
+        <v>65</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="D66" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E66" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>522</v>
+      </c>
+      <c r="F66" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" t="s">
-        <v>204</v>
+        <v>66</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="D67" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E67" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>523</v>
+      </c>
+      <c r="F67" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" t="s">
-        <v>205</v>
+        <v>67</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="D68" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E68" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>524</v>
+      </c>
+      <c r="F68" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" t="s">
-        <v>206</v>
+        <v>68</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D69" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E69" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>525</v>
+      </c>
+      <c r="F69" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" t="s">
-        <v>207</v>
+        <v>69</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="D70" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E70" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>526</v>
+      </c>
+      <c r="F70" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" t="s">
-        <v>208</v>
+        <v>70</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="D71" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E71" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>527</v>
+      </c>
+      <c r="F71" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" t="s">
-        <v>209</v>
+        <v>71</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="D72" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E72" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>528</v>
+      </c>
+      <c r="F72" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" t="s">
-        <v>210</v>
+        <v>72</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="D73" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E73" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>529</v>
+      </c>
+      <c r="F73" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" t="s">
-        <v>211</v>
+        <v>73</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="D74" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E74" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>530</v>
+      </c>
+      <c r="F74" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" t="s">
-        <v>212</v>
+        <v>74</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="D75" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E75" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>531</v>
+      </c>
+      <c r="F75" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" t="s">
-        <v>213</v>
+        <v>75</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="D76" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E76" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>532</v>
+      </c>
+      <c r="F76" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" t="s">
-        <v>214</v>
+        <v>76</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="D77" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E77" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>533</v>
+      </c>
+      <c r="F77" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" t="s">
-        <v>215</v>
+        <v>77</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="D78" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E78" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>534</v>
+      </c>
+      <c r="F78" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" t="s">
-        <v>216</v>
+        <v>78</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="D79" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E79" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>535</v>
+      </c>
+      <c r="F79" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80" t="s">
-        <v>217</v>
+        <v>78</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="D80" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E80" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>536</v>
+      </c>
+      <c r="F80" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" t="s">
-        <v>218</v>
+        <v>78</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="D81" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E81" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>537</v>
+      </c>
+      <c r="F81" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
-      </c>
-      <c r="C82" t="s">
-        <v>219</v>
+        <v>78</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="D82" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E82" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>538</v>
+      </c>
+      <c r="F82" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" t="s">
-        <v>220</v>
+        <v>78</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="D83" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E83" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>539</v>
+      </c>
+      <c r="F83" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" t="s">
-        <v>221</v>
+        <v>79</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="D84" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E84" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>540</v>
+      </c>
+      <c r="F84" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
-      </c>
-      <c r="C85" t="s">
-        <v>222</v>
+        <v>80</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="D85" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E85" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>541</v>
+      </c>
+      <c r="F85" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
-      </c>
-      <c r="C86" t="s">
-        <v>223</v>
+        <v>80</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="D86" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E86" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>542</v>
+      </c>
+      <c r="F86" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
-      </c>
-      <c r="C87" t="s">
-        <v>224</v>
+        <v>80</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="D87" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E87" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>543</v>
+      </c>
+      <c r="F87" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
-      </c>
-      <c r="C88" t="s">
-        <v>225</v>
+        <v>81</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="D88" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E88" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>544</v>
+      </c>
+      <c r="F88" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
-      </c>
-      <c r="C89" t="s">
-        <v>226</v>
+        <v>82</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="D89" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E89" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>545</v>
+      </c>
+      <c r="F89" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
-      </c>
-      <c r="C90" t="s">
-        <v>227</v>
+        <v>83</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="D90" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E90" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>546</v>
+      </c>
+      <c r="F90" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
-      </c>
-      <c r="C91" t="s">
-        <v>228</v>
+        <v>84</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D91" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E91" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>547</v>
+      </c>
+      <c r="F91" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
-      </c>
-      <c r="C92" t="s">
-        <v>229</v>
+        <v>85</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="D92" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E92" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>548</v>
+      </c>
+      <c r="F92" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
-      </c>
-      <c r="C93" t="s">
-        <v>230</v>
+        <v>86</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="D93" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E93" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>549</v>
+      </c>
+      <c r="F93" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
-      </c>
-      <c r="C94" t="s">
-        <v>231</v>
+        <v>87</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="D94" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E94" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>550</v>
+      </c>
+      <c r="F94" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>87</v>
-      </c>
-      <c r="C95" t="s">
-        <v>232</v>
+        <v>88</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="D95" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E95" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>551</v>
+      </c>
+      <c r="F95" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" t="s">
-        <v>233</v>
+        <v>89</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="D96" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E96" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>552</v>
+      </c>
+      <c r="F96" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
-      </c>
-      <c r="C97" t="s">
-        <v>234</v>
+        <v>90</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D97" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E97" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>553</v>
+      </c>
+      <c r="F97" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>90</v>
-      </c>
-      <c r="C98" t="s">
-        <v>235</v>
+        <v>91</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="D98" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E98" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>554</v>
+      </c>
+      <c r="F98" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
-      </c>
-      <c r="C99" t="s">
-        <v>236</v>
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="D99" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E99" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>555</v>
+      </c>
+      <c r="F99" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" t="s">
-        <v>237</v>
+        <v>93</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="D100" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E100" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>556</v>
+      </c>
+      <c r="F100" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
-      </c>
-      <c r="C101" t="s">
-        <v>238</v>
+        <v>94</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="D101" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E101" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>557</v>
+      </c>
+      <c r="F101" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>94</v>
-      </c>
-      <c r="C102" t="s">
-        <v>239</v>
+        <v>95</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="D102" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E102" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>558</v>
+      </c>
+      <c r="F102" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>94</v>
-      </c>
-      <c r="C103" t="s">
-        <v>240</v>
+        <v>96</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="D103" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E103" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>559</v>
+      </c>
+      <c r="F103" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>94</v>
-      </c>
-      <c r="C104" t="s">
-        <v>241</v>
+        <v>96</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="D104" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E104" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>560</v>
+      </c>
+      <c r="F104" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>94</v>
-      </c>
-      <c r="C105" t="s">
-        <v>242</v>
+        <v>96</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="D105" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E105" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>561</v>
+      </c>
+      <c r="F105" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>94</v>
-      </c>
-      <c r="C106" t="s">
-        <v>243</v>
+        <v>96</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D106" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E106" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>562</v>
+      </c>
+      <c r="F106" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>94</v>
-      </c>
-      <c r="C107" t="s">
-        <v>244</v>
+        <v>96</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="D107" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E107" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>563</v>
+      </c>
+      <c r="F107" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>94</v>
-      </c>
-      <c r="C108" t="s">
-        <v>245</v>
+        <v>96</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="D108" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E108" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>564</v>
+      </c>
+      <c r="F108" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>95</v>
-      </c>
-      <c r="C109" t="s">
-        <v>246</v>
+        <v>96</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="D109" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E109" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>565</v>
+      </c>
+      <c r="F109" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>96</v>
-      </c>
-      <c r="C110" t="s">
-        <v>247</v>
+        <v>97</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="D110" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E110" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>566</v>
+      </c>
+      <c r="F110" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>97</v>
-      </c>
-      <c r="C111" t="s">
-        <v>248</v>
+        <v>98</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="D111" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E111" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>567</v>
+      </c>
+      <c r="F111" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>98</v>
-      </c>
-      <c r="C112" t="s">
-        <v>249</v>
+        <v>99</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D112" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E112" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>568</v>
+      </c>
+      <c r="F112" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>99</v>
-      </c>
-      <c r="C113" t="s">
-        <v>250</v>
+        <v>100</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="D113" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E113" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>569</v>
+      </c>
+      <c r="F113" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>101</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D114" t="s">
+        <v>411</v>
+      </c>
+      <c r="E114" t="s">
+        <v>570</v>
+      </c>
+      <c r="F114" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>102</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D115" t="s">
+        <v>412</v>
+      </c>
+      <c r="E115" t="s">
+        <v>571</v>
+      </c>
+      <c r="F115" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>103</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D116" t="s">
+        <v>413</v>
+      </c>
+      <c r="E116" t="s">
+        <v>572</v>
+      </c>
+      <c r="F116" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>104</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D117" t="s">
+        <v>414</v>
+      </c>
+      <c r="E117" t="s">
+        <v>573</v>
+      </c>
+      <c r="F117" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>105</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D118" t="s">
+        <v>415</v>
+      </c>
+      <c r="E118" t="s">
+        <v>574</v>
+      </c>
+      <c r="F118" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>106</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D119" t="s">
+        <v>416</v>
+      </c>
+      <c r="E119" t="s">
+        <v>575</v>
+      </c>
+      <c r="F119" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s">
+        <v>107</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D120" t="s">
+        <v>417</v>
+      </c>
+      <c r="E120" t="s">
+        <v>576</v>
+      </c>
+      <c r="F120" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>108</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D121" t="s">
+        <v>418</v>
+      </c>
+      <c r="E121" t="s">
+        <v>577</v>
+      </c>
+      <c r="F121" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>109</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D122" t="s">
+        <v>419</v>
+      </c>
+      <c r="E122" t="s">
+        <v>578</v>
+      </c>
+      <c r="F122" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D123" t="s">
+        <v>420</v>
+      </c>
+      <c r="E123" t="s">
+        <v>579</v>
+      </c>
+      <c r="F123" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>111</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D124" t="s">
+        <v>421</v>
+      </c>
+      <c r="E124" t="s">
+        <v>580</v>
+      </c>
+      <c r="F124" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D125" t="s">
+        <v>422</v>
+      </c>
+      <c r="E125" t="s">
+        <v>581</v>
+      </c>
+      <c r="F125" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D126" t="s">
+        <v>423</v>
+      </c>
+      <c r="E126" t="s">
+        <v>582</v>
+      </c>
+      <c r="F126" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>114</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D127" t="s">
+        <v>424</v>
+      </c>
+      <c r="E127" t="s">
+        <v>583</v>
+      </c>
+      <c r="F127" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>114</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D128" t="s">
+        <v>425</v>
+      </c>
+      <c r="E128" t="s">
+        <v>584</v>
+      </c>
+      <c r="F128" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>115</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D129" t="s">
+        <v>426</v>
+      </c>
+      <c r="E129" t="s">
+        <v>585</v>
+      </c>
+      <c r="F129" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>115</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D130" t="s">
+        <v>427</v>
+      </c>
+      <c r="E130" t="s">
+        <v>586</v>
+      </c>
+      <c r="F130" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>115</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D131" t="s">
+        <v>428</v>
+      </c>
+      <c r="E131" t="s">
+        <v>587</v>
+      </c>
+      <c r="F131" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
+        <v>115</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D132" t="s">
+        <v>429</v>
+      </c>
+      <c r="E132" t="s">
+        <v>588</v>
+      </c>
+      <c r="F132" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
+        <v>115</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D133" t="s">
+        <v>430</v>
+      </c>
+      <c r="E133" t="s">
+        <v>589</v>
+      </c>
+      <c r="F133" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>115</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D134" t="s">
+        <v>431</v>
+      </c>
+      <c r="E134" t="s">
+        <v>590</v>
+      </c>
+      <c r="F134" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>115</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D135" t="s">
+        <v>432</v>
+      </c>
+      <c r="E135" t="s">
+        <v>591</v>
+      </c>
+      <c r="F135" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>115</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D136" t="s">
+        <v>433</v>
+      </c>
+      <c r="E136" t="s">
+        <v>592</v>
+      </c>
+      <c r="F136" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>116</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D137" t="s">
+        <v>434</v>
+      </c>
+      <c r="E137" t="s">
+        <v>593</v>
+      </c>
+      <c r="F137" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>117</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D138" t="s">
+        <v>435</v>
+      </c>
+      <c r="E138" t="s">
+        <v>594</v>
+      </c>
+      <c r="F138" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
         <v>6</v>
       </c>
-      <c r="B114" t="s">
-        <v>100</v>
-      </c>
-      <c r="C114" t="s">
-        <v>251</v>
-      </c>
-      <c r="D114" t="s">
-        <v>410</v>
-      </c>
-      <c r="E114" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
+      <c r="B139" t="s">
+        <v>118</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D139" t="s">
+        <v>436</v>
+      </c>
+      <c r="E139" t="s">
+        <v>595</v>
+      </c>
+      <c r="F139" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>119</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D140" t="s">
+        <v>437</v>
+      </c>
+      <c r="E140" t="s">
+        <v>596</v>
+      </c>
+      <c r="F140" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
         <v>6</v>
       </c>
-      <c r="B115" t="s">
-        <v>101</v>
-      </c>
-      <c r="C115" t="s">
-        <v>252</v>
-      </c>
-      <c r="D115" t="s">
-        <v>411</v>
-      </c>
-      <c r="E115" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" t="s">
-        <v>102</v>
-      </c>
-      <c r="C116" t="s">
-        <v>253</v>
-      </c>
-      <c r="D116" t="s">
-        <v>412</v>
-      </c>
-      <c r="E116" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" t="s">
-        <v>103</v>
-      </c>
-      <c r="C117" t="s">
-        <v>254</v>
-      </c>
-      <c r="D117" t="s">
-        <v>413</v>
-      </c>
-      <c r="E117" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" t="s">
-        <v>104</v>
-      </c>
-      <c r="C118" t="s">
-        <v>255</v>
-      </c>
-      <c r="D118" t="s">
-        <v>414</v>
-      </c>
-      <c r="E118" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" t="s">
-        <v>105</v>
-      </c>
-      <c r="C119" t="s">
-        <v>256</v>
-      </c>
-      <c r="D119" t="s">
-        <v>415</v>
-      </c>
-      <c r="E119" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" t="s">
-        <v>106</v>
-      </c>
-      <c r="C120" t="s">
-        <v>257</v>
-      </c>
-      <c r="D120" t="s">
-        <v>416</v>
-      </c>
-      <c r="E120" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" t="s">
-        <v>107</v>
-      </c>
-      <c r="C121" t="s">
-        <v>258</v>
-      </c>
-      <c r="D121" t="s">
-        <v>417</v>
-      </c>
-      <c r="E121" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" t="s">
-        <v>108</v>
-      </c>
-      <c r="C122" t="s">
-        <v>259</v>
-      </c>
-      <c r="D122" t="s">
-        <v>418</v>
-      </c>
-      <c r="E122" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123" t="s">
-        <v>109</v>
-      </c>
-      <c r="C123" t="s">
-        <v>260</v>
-      </c>
-      <c r="D123" t="s">
-        <v>419</v>
-      </c>
-      <c r="E123" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" t="s">
-        <v>110</v>
-      </c>
-      <c r="C124" t="s">
-        <v>261</v>
-      </c>
-      <c r="D124" t="s">
-        <v>420</v>
-      </c>
-      <c r="E124" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" t="s">
-        <v>6</v>
-      </c>
-      <c r="B125" t="s">
-        <v>111</v>
-      </c>
-      <c r="C125" t="s">
-        <v>262</v>
-      </c>
-      <c r="D125" t="s">
-        <v>421</v>
-      </c>
-      <c r="E125" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>6</v>
-      </c>
-      <c r="B126" t="s">
-        <v>112</v>
-      </c>
-      <c r="C126" t="s">
-        <v>263</v>
-      </c>
-      <c r="D126" t="s">
-        <v>422</v>
-      </c>
-      <c r="E126" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127" t="s">
-        <v>112</v>
-      </c>
-      <c r="C127" t="s">
-        <v>264</v>
-      </c>
-      <c r="D127" t="s">
-        <v>423</v>
-      </c>
-      <c r="E127" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>6</v>
-      </c>
-      <c r="B128" t="s">
-        <v>113</v>
-      </c>
-      <c r="C128" t="s">
-        <v>265</v>
-      </c>
-      <c r="D128" t="s">
-        <v>424</v>
-      </c>
-      <c r="E128" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>6</v>
-      </c>
-      <c r="B129" t="s">
-        <v>113</v>
-      </c>
-      <c r="C129" t="s">
-        <v>266</v>
-      </c>
-      <c r="D129" t="s">
-        <v>425</v>
-      </c>
-      <c r="E129" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>6</v>
-      </c>
-      <c r="B130" t="s">
-        <v>113</v>
-      </c>
-      <c r="C130" t="s">
-        <v>267</v>
-      </c>
-      <c r="D130" t="s">
-        <v>426</v>
-      </c>
-      <c r="E130" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>6</v>
-      </c>
-      <c r="B131" t="s">
-        <v>113</v>
-      </c>
-      <c r="C131" t="s">
-        <v>268</v>
-      </c>
-      <c r="D131" t="s">
-        <v>427</v>
-      </c>
-      <c r="E131" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>6</v>
-      </c>
-      <c r="B132" t="s">
-        <v>113</v>
-      </c>
-      <c r="C132" t="s">
-        <v>269</v>
-      </c>
-      <c r="D132" t="s">
-        <v>428</v>
-      </c>
-      <c r="E132" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>6</v>
-      </c>
-      <c r="B133" t="s">
-        <v>113</v>
-      </c>
-      <c r="C133" t="s">
-        <v>270</v>
-      </c>
-      <c r="D133" t="s">
-        <v>429</v>
-      </c>
-      <c r="E133" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" t="s">
-        <v>6</v>
-      </c>
-      <c r="B134" t="s">
-        <v>113</v>
-      </c>
-      <c r="C134" t="s">
-        <v>271</v>
-      </c>
-      <c r="D134" t="s">
-        <v>430</v>
-      </c>
-      <c r="E134" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" t="s">
-        <v>6</v>
-      </c>
-      <c r="B135" t="s">
-        <v>113</v>
-      </c>
-      <c r="C135" t="s">
-        <v>272</v>
-      </c>
-      <c r="D135" t="s">
-        <v>431</v>
-      </c>
-      <c r="E135" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" t="s">
-        <v>6</v>
-      </c>
-      <c r="B136" t="s">
-        <v>114</v>
-      </c>
-      <c r="C136" t="s">
-        <v>273</v>
-      </c>
-      <c r="D136" t="s">
-        <v>432</v>
-      </c>
-      <c r="E136" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137" t="s">
-        <v>115</v>
-      </c>
-      <c r="C137" t="s">
-        <v>274</v>
-      </c>
-      <c r="D137" t="s">
-        <v>433</v>
-      </c>
-      <c r="E137" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" t="s">
-        <v>116</v>
-      </c>
-      <c r="C138" t="s">
-        <v>275</v>
-      </c>
-      <c r="D138" t="s">
-        <v>434</v>
-      </c>
-      <c r="E138" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" t="s">
-        <v>117</v>
-      </c>
-      <c r="C139" t="s">
-        <v>276</v>
-      </c>
-      <c r="D139" t="s">
-        <v>435</v>
-      </c>
-      <c r="E139" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B140" t="s">
-        <v>118</v>
-      </c>
-      <c r="C140" t="s">
-        <v>277</v>
-      </c>
-      <c r="D140" t="s">
-        <v>436</v>
-      </c>
-      <c r="E140" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" t="s">
-        <v>5</v>
-      </c>
       <c r="B141" t="s">
-        <v>119</v>
-      </c>
-      <c r="C141" t="s">
-        <v>278</v>
+        <v>120</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="D141" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E141" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>597</v>
+      </c>
+      <c r="F141" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>120</v>
-      </c>
-      <c r="C142" t="s">
-        <v>279</v>
+        <v>121</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="D142" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E142" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>598</v>
+      </c>
+      <c r="F142" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>121</v>
-      </c>
-      <c r="C143" t="s">
-        <v>280</v>
+        <v>122</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="D143" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E143" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>599</v>
+      </c>
+      <c r="F143" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>122</v>
-      </c>
-      <c r="C144" t="s">
-        <v>281</v>
+        <v>123</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="D144" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E144" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>600</v>
+      </c>
+      <c r="F144" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B145" t="s">
-        <v>123</v>
-      </c>
-      <c r="C145" t="s">
-        <v>282</v>
+        <v>124</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="D145" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E145" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>601</v>
+      </c>
+      <c r="F145" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>124</v>
-      </c>
-      <c r="C146" t="s">
-        <v>283</v>
+        <v>125</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="D146" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E146" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>602</v>
+      </c>
+      <c r="F146" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B147" t="s">
-        <v>125</v>
-      </c>
-      <c r="C147" t="s">
-        <v>284</v>
+        <v>126</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="D147" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E147" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>603</v>
+      </c>
+      <c r="F147" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>126</v>
-      </c>
-      <c r="C148" t="s">
-        <v>285</v>
+        <v>127</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="D148" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E148" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>604</v>
+      </c>
+      <c r="F148" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>127</v>
-      </c>
-      <c r="C149" t="s">
-        <v>286</v>
+        <v>128</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="D149" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E149" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>605</v>
+      </c>
+      <c r="F149" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>128</v>
-      </c>
-      <c r="C150" t="s">
-        <v>287</v>
+        <v>129</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="D150" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E150" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>606</v>
+      </c>
+      <c r="F150" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>129</v>
-      </c>
-      <c r="C151" t="s">
-        <v>288</v>
+        <v>130</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="D151" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E151" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>607</v>
+      </c>
+      <c r="F151" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>130</v>
-      </c>
-      <c r="C152" t="s">
-        <v>289</v>
+        <v>131</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="D152" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E152" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>608</v>
+      </c>
+      <c r="F152" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B153" t="s">
-        <v>131</v>
-      </c>
-      <c r="C153" t="s">
-        <v>290</v>
+        <v>132</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="D153" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E153" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>609</v>
+      </c>
+      <c r="F153" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B154" t="s">
-        <v>132</v>
-      </c>
-      <c r="C154" t="s">
-        <v>291</v>
+        <v>133</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="D154" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E154" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>610</v>
+      </c>
+      <c r="F154" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>133</v>
-      </c>
-      <c r="C155" t="s">
-        <v>292</v>
+        <v>134</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="D155" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E155" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>611</v>
+      </c>
+      <c r="F155" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>134</v>
-      </c>
-      <c r="C156" t="s">
-        <v>293</v>
+        <v>135</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="D156" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E156" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>612</v>
+      </c>
+      <c r="F156" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B157" t="s">
-        <v>135</v>
-      </c>
-      <c r="C157" t="s">
-        <v>294</v>
+        <v>136</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="D157" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E157" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>613</v>
+      </c>
+      <c r="F157" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>136</v>
-      </c>
-      <c r="C158" t="s">
-        <v>295</v>
+        <v>137</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="D158" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E158" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>614</v>
+      </c>
+      <c r="F158" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B159" t="s">
-        <v>137</v>
-      </c>
-      <c r="C159" t="s">
-        <v>296</v>
+        <v>138</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="D159" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E159" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>615</v>
+      </c>
+      <c r="F159" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>138</v>
-      </c>
-      <c r="C160" t="s">
-        <v>297</v>
+        <v>139</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="D160" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E160" t="s">
-        <v>615</v>
+        <v>616</v>
+      </c>
+      <c r="F160" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="C23" r:id="rId22"/>
+    <hyperlink ref="C24" r:id="rId23"/>
+    <hyperlink ref="C25" r:id="rId24"/>
+    <hyperlink ref="C26" r:id="rId25"/>
+    <hyperlink ref="C27" r:id="rId26"/>
+    <hyperlink ref="C28" r:id="rId27"/>
+    <hyperlink ref="C29" r:id="rId28"/>
+    <hyperlink ref="C30" r:id="rId29"/>
+    <hyperlink ref="C31" r:id="rId30"/>
+    <hyperlink ref="C32" r:id="rId31"/>
+    <hyperlink ref="C33" r:id="rId32"/>
+    <hyperlink ref="C34" r:id="rId33"/>
+    <hyperlink ref="C35" r:id="rId34"/>
+    <hyperlink ref="C36" r:id="rId35"/>
+    <hyperlink ref="C37" r:id="rId36"/>
+    <hyperlink ref="C38" r:id="rId37"/>
+    <hyperlink ref="C39" r:id="rId38"/>
+    <hyperlink ref="C40" r:id="rId39"/>
+    <hyperlink ref="C41" r:id="rId40"/>
+    <hyperlink ref="C42" r:id="rId41"/>
+    <hyperlink ref="C43" r:id="rId42"/>
+    <hyperlink ref="C44" r:id="rId43"/>
+    <hyperlink ref="C45" r:id="rId44"/>
+    <hyperlink ref="C46" r:id="rId45"/>
+    <hyperlink ref="C47" r:id="rId46"/>
+    <hyperlink ref="C48" r:id="rId47"/>
+    <hyperlink ref="C49" r:id="rId48"/>
+    <hyperlink ref="C50" r:id="rId49"/>
+    <hyperlink ref="C51" r:id="rId50"/>
+    <hyperlink ref="C52" r:id="rId51"/>
+    <hyperlink ref="C53" r:id="rId52"/>
+    <hyperlink ref="C54" r:id="rId53"/>
+    <hyperlink ref="C55" r:id="rId54"/>
+    <hyperlink ref="C56" r:id="rId55"/>
+    <hyperlink ref="C57" r:id="rId56"/>
+    <hyperlink ref="C58" r:id="rId57"/>
+    <hyperlink ref="C59" r:id="rId58"/>
+    <hyperlink ref="C60" r:id="rId59"/>
+    <hyperlink ref="C61" r:id="rId60"/>
+    <hyperlink ref="C62" r:id="rId61"/>
+    <hyperlink ref="C63" r:id="rId62"/>
+    <hyperlink ref="C64" r:id="rId63"/>
+    <hyperlink ref="C65" r:id="rId64"/>
+    <hyperlink ref="C66" r:id="rId65"/>
+    <hyperlink ref="C67" r:id="rId66"/>
+    <hyperlink ref="C68" r:id="rId67"/>
+    <hyperlink ref="C69" r:id="rId68"/>
+    <hyperlink ref="C70" r:id="rId69"/>
+    <hyperlink ref="C71" r:id="rId70"/>
+    <hyperlink ref="C72" r:id="rId71"/>
+    <hyperlink ref="C73" r:id="rId72"/>
+    <hyperlink ref="C74" r:id="rId73"/>
+    <hyperlink ref="C75" r:id="rId74"/>
+    <hyperlink ref="C76" r:id="rId75"/>
+    <hyperlink ref="C77" r:id="rId76"/>
+    <hyperlink ref="C78" r:id="rId77"/>
+    <hyperlink ref="C79" r:id="rId78"/>
+    <hyperlink ref="C80" r:id="rId79"/>
+    <hyperlink ref="C81" r:id="rId80"/>
+    <hyperlink ref="C82" r:id="rId81"/>
+    <hyperlink ref="C83" r:id="rId82"/>
+    <hyperlink ref="C84" r:id="rId83"/>
+    <hyperlink ref="C85" r:id="rId84"/>
+    <hyperlink ref="C86" r:id="rId85"/>
+    <hyperlink ref="C87" r:id="rId86"/>
+    <hyperlink ref="C88" r:id="rId87"/>
+    <hyperlink ref="C89" r:id="rId88"/>
+    <hyperlink ref="C90" r:id="rId89"/>
+    <hyperlink ref="C91" r:id="rId90"/>
+    <hyperlink ref="C92" r:id="rId91"/>
+    <hyperlink ref="C93" r:id="rId92"/>
+    <hyperlink ref="C94" r:id="rId93"/>
+    <hyperlink ref="C95" r:id="rId94"/>
+    <hyperlink ref="C96" r:id="rId95"/>
+    <hyperlink ref="C97" r:id="rId96"/>
+    <hyperlink ref="C98" r:id="rId97"/>
+    <hyperlink ref="C99" r:id="rId98"/>
+    <hyperlink ref="C100" r:id="rId99"/>
+    <hyperlink ref="C101" r:id="rId100"/>
+    <hyperlink ref="C102" r:id="rId101"/>
+    <hyperlink ref="C103" r:id="rId102"/>
+    <hyperlink ref="C104" r:id="rId103"/>
+    <hyperlink ref="C105" r:id="rId104"/>
+    <hyperlink ref="C106" r:id="rId105"/>
+    <hyperlink ref="C107" r:id="rId106"/>
+    <hyperlink ref="C108" r:id="rId107"/>
+    <hyperlink ref="C109" r:id="rId108"/>
+    <hyperlink ref="C110" r:id="rId109"/>
+    <hyperlink ref="C111" r:id="rId110"/>
+    <hyperlink ref="C112" r:id="rId111"/>
+    <hyperlink ref="C113" r:id="rId112"/>
+    <hyperlink ref="C114" r:id="rId113"/>
+    <hyperlink ref="C115" r:id="rId114"/>
+    <hyperlink ref="C116" r:id="rId115"/>
+    <hyperlink ref="C117" r:id="rId116"/>
+    <hyperlink ref="C118" r:id="rId117"/>
+    <hyperlink ref="C119" r:id="rId118"/>
+    <hyperlink ref="C120" r:id="rId119"/>
+    <hyperlink ref="C121" r:id="rId120"/>
+    <hyperlink ref="C122" r:id="rId121"/>
+    <hyperlink ref="C123" r:id="rId122"/>
+    <hyperlink ref="C124" r:id="rId123"/>
+    <hyperlink ref="C125" r:id="rId124"/>
+    <hyperlink ref="C126" r:id="rId125"/>
+    <hyperlink ref="C127" r:id="rId126"/>
+    <hyperlink ref="C128" r:id="rId127"/>
+    <hyperlink ref="C129" r:id="rId128"/>
+    <hyperlink ref="C130" r:id="rId129"/>
+    <hyperlink ref="C131" r:id="rId130"/>
+    <hyperlink ref="C132" r:id="rId131"/>
+    <hyperlink ref="C133" r:id="rId132"/>
+    <hyperlink ref="C134" r:id="rId133"/>
+    <hyperlink ref="C135" r:id="rId134"/>
+    <hyperlink ref="C136" r:id="rId135"/>
+    <hyperlink ref="C137" r:id="rId136"/>
+    <hyperlink ref="C138" r:id="rId137"/>
+    <hyperlink ref="C139" r:id="rId138"/>
+    <hyperlink ref="C140" r:id="rId139"/>
+    <hyperlink ref="C141" r:id="rId140"/>
+    <hyperlink ref="C142" r:id="rId141"/>
+    <hyperlink ref="C143" r:id="rId142"/>
+    <hyperlink ref="C144" r:id="rId143"/>
+    <hyperlink ref="C145" r:id="rId144"/>
+    <hyperlink ref="C146" r:id="rId145"/>
+    <hyperlink ref="C147" r:id="rId146"/>
+    <hyperlink ref="C148" r:id="rId147"/>
+    <hyperlink ref="C149" r:id="rId148"/>
+    <hyperlink ref="C150" r:id="rId149"/>
+    <hyperlink ref="C151" r:id="rId150"/>
+    <hyperlink ref="C152" r:id="rId151"/>
+    <hyperlink ref="C153" r:id="rId152"/>
+    <hyperlink ref="C154" r:id="rId153"/>
+    <hyperlink ref="C155" r:id="rId154"/>
+    <hyperlink ref="C156" r:id="rId155"/>
+    <hyperlink ref="C157" r:id="rId156"/>
+    <hyperlink ref="C158" r:id="rId157"/>
+    <hyperlink ref="C159" r:id="rId158"/>
+    <hyperlink ref="C160" r:id="rId159"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>